--- a/src/results_output.xlsx
+++ b/src/results_output.xlsx
@@ -677,22 +677,22 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>1430.003</t>
+          <t>1219.170</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>-80.880</t>
+          <t>-105.926</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
@@ -711,12 +711,12 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -782,22 +782,22 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1929.996</t>
+          <t>1223.977</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>-56.468</t>
+          <t>-105.966</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr"/>
@@ -806,7 +806,7 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -887,22 +887,22 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>2407.215</t>
+          <t>1230.873</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>-101.628</t>
+          <t>-105.987</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr"/>
@@ -911,7 +911,7 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>2407.276</t>
+          <t>1236.651</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>-98.978</t>
+          <t>-106.013</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr"/>
@@ -1016,7 +1016,7 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
@@ -1026,12 +1026,12 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1097,22 +1097,22 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>2407.676</t>
+          <t>1244.603</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>-99.226</t>
+          <t>-105.785</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr"/>
@@ -1121,7 +1121,7 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1202,22 +1202,22 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2407.871</t>
+          <t>1247.590</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>-99.980</t>
+          <t>-106.015</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr"/>
@@ -1226,7 +1226,7 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -1307,22 +1307,22 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2408.077</t>
+          <t>1258.625</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-98.299</t>
+          <t>-105.783</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr"/>
@@ -1331,7 +1331,7 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -1412,22 +1412,22 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>2408.271</t>
+          <t>1265.241</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-97.207</t>
+          <t>-106.016</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
@@ -1446,12 +1446,12 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -1517,22 +1517,22 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>2408.320</t>
+          <t>1287.894</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-101.733</t>
+          <t>-105.406</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr"/>
@@ -1541,7 +1541,7 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1622,22 +1622,22 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2408.623</t>
+          <t>1320.781</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>-102.615</t>
+          <t>-105.394</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -1656,12 +1656,12 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -1727,22 +1727,22 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>2408.672</t>
+          <t>1355.416</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>-96.961</t>
+          <t>-105.711</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr"/>
@@ -1751,7 +1751,7 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -1832,22 +1832,22 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2408.866</t>
+          <t>1399.362</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>-100.058</t>
+          <t>-105.808</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr"/>
@@ -1856,7 +1856,7 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
@@ -1866,12 +1866,12 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -1937,22 +1937,22 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2408.975</t>
+          <t>1401.220</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>-102.235</t>
+          <t>-106.006</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -2042,22 +2042,22 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>2409.072</t>
+          <t>1403.053</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>-98.156</t>
+          <t>-105.966</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr"/>
@@ -2066,7 +2066,7 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -2147,22 +2147,22 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2409.279</t>
+          <t>1422.064</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>-96.943</t>
+          <t>-105.991</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr"/>
@@ -2171,7 +2171,7 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -2252,22 +2252,22 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>2409.352</t>
+          <t>1430.003</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>-101.982</t>
+          <t>-80.860</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr"/>
@@ -2276,7 +2276,7 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -2357,22 +2357,22 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>2409.424</t>
+          <t>1431.448</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>-101.824</t>
+          <t>-106.037</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr"/>
@@ -2381,7 +2381,7 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -2462,22 +2462,22 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>2409.522</t>
+          <t>1439.485</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>-102.149</t>
+          <t>-105.591</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr"/>
@@ -2486,7 +2486,7 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
@@ -2496,12 +2496,12 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -2567,22 +2567,22 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>2409.667</t>
+          <t>1505.064</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-97.965</t>
+          <t>-105.814</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr"/>
@@ -2591,7 +2591,7 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -2672,22 +2672,22 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>2409.728</t>
+          <t>1550.249</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>-99.744</t>
+          <t>-105.331</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr"/>
@@ -2696,7 +2696,7 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
@@ -2706,12 +2706,12 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -2777,22 +2777,22 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>2409.874</t>
+          <t>1552.458</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-98.554</t>
+          <t>-105.815</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr"/>
@@ -2801,7 +2801,7 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="AH22" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -2882,22 +2882,22 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>2410.080</t>
+          <t>1595.591</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>-98.789</t>
+          <t>-105.429</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr"/>
@@ -2906,7 +2906,7 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="AH23" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -2987,22 +2987,22 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>2410.274</t>
+          <t>1611.240</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>-96.143</t>
+          <t>-106.055</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr"/>
@@ -3011,7 +3011,7 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG24" t="inlineStr">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -3092,22 +3092,22 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>2410.675</t>
+          <t>1613.570</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>-98.872</t>
+          <t>-105.819</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr"/>
@@ -3116,7 +3116,7 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
@@ -3126,12 +3126,12 @@
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>2410.736</t>
+          <t>1627.483</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>-102.448</t>
+          <t>-104.986</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr"/>
@@ -3221,7 +3221,7 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="AH26" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -3302,22 +3302,22 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>2410.881</t>
+          <t>1639.598</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>-100.376</t>
+          <t>-105.359</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr"/>
@@ -3326,7 +3326,7 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
@@ -3336,12 +3336,12 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -3407,22 +3407,22 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>2411.075</t>
+          <t>1678.373</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>-98.932</t>
+          <t>-106.073</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr"/>
@@ -3431,7 +3431,7 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
@@ -3441,12 +3441,12 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -3512,22 +3512,22 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>2411.270</t>
+          <t>1706.052</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>-97.244</t>
+          <t>-105.927</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr"/>
@@ -3536,7 +3536,7 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -3617,22 +3617,22 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>2411.670</t>
+          <t>1708.966</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>-100.420</t>
+          <t>-105.569</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr"/>
@@ -3641,7 +3641,7 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -3651,12 +3651,12 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -3722,22 +3722,22 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>2412.277</t>
+          <t>1712.292</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>-100.951</t>
+          <t>-105.942</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr"/>
@@ -3746,7 +3746,7 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
@@ -3756,12 +3756,12 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -3827,22 +3827,22 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>2412.678</t>
+          <t>1844.155</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>-98.513</t>
+          <t>-105.911</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr"/>
@@ -3851,7 +3851,7 @@
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG32" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -3932,22 +3932,22 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>2412.739</t>
+          <t>1856.817</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>-102.293</t>
+          <t>-105.983</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr"/>
@@ -3956,7 +3956,7 @@
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG33" t="inlineStr">
@@ -3966,12 +3966,12 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -4037,22 +4037,22 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2412.872</t>
+          <t>1886.305</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>-100.404</t>
+          <t>-106.064</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -4071,12 +4071,12 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -4142,22 +4142,22 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>2413.066</t>
+          <t>1900.557</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>-102.106</t>
+          <t>-105.827</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
@@ -4166,7 +4166,7 @@
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
@@ -4176,12 +4176,12 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -4247,22 +4247,22 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>2413.273</t>
+          <t>1929.875</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>-98.406</t>
+          <t>-101.831</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr"/>
@@ -4271,7 +4271,7 @@
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -4281,12 +4281,12 @@
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -4352,22 +4352,22 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>2413.673</t>
+          <t>1929.996</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>-97.670</t>
+          <t>-56.416</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr"/>
@@ -4376,7 +4376,7 @@
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -4386,12 +4386,12 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -4457,22 +4457,22 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>2413.734</t>
+          <t>1930.130</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>-101.683</t>
+          <t>-103.516</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB38" t="inlineStr"/>
@@ -4481,7 +4481,7 @@
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
@@ -4491,12 +4491,12 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -4562,22 +4562,22 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>2413.880</t>
+          <t>1930.263</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>-101.172</t>
+          <t>-105.667</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB39" t="inlineStr"/>
@@ -4586,7 +4586,7 @@
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -4667,22 +4667,22 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>2414.074</t>
+          <t>1944.528</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>-100.797</t>
+          <t>-105.664</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB40" t="inlineStr"/>
@@ -4691,7 +4691,7 @@
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG40" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
@@ -4772,22 +4772,22 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>2414.208</t>
+          <t>1966.635</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>-101.451</t>
+          <t>-104.879</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr"/>
@@ -4796,7 +4796,7 @@
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG41" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
@@ -4877,22 +4877,22 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>2414.268</t>
+          <t>2004.353</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>-99.600</t>
+          <t>-105.413</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr"/>
@@ -4901,7 +4901,7 @@
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG42" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -4982,22 +4982,22 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>2414.669</t>
+          <t>2106.717</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>-99.281</t>
+          <t>-105.826</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr"/>
@@ -5006,7 +5006,7 @@
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG43" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
@@ -5087,22 +5087,22 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>2414.875</t>
+          <t>2126.553</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>-100.968</t>
+          <t>-105.941</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB44" t="inlineStr"/>
@@ -5111,7 +5111,7 @@
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG44" t="inlineStr">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
@@ -5192,22 +5192,22 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>2415.082</t>
+          <t>2238.240</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>-102.501</t>
+          <t>-105.948</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr"/>
@@ -5216,7 +5216,7 @@
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG45" t="inlineStr">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
@@ -5297,22 +5297,22 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>2415.276</t>
+          <t>2253.463</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>-99.904</t>
+          <t>-105.481</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB46" t="inlineStr"/>
@@ -5321,7 +5321,7 @@
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG46" t="inlineStr">
@@ -5331,12 +5331,12 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
@@ -5402,22 +5402,22 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>2415.616</t>
+          <t>2309.161</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>-102.730</t>
+          <t>-105.782</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB47" t="inlineStr"/>
@@ -5426,7 +5426,7 @@
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG47" t="inlineStr">
@@ -5436,12 +5436,12 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr">
@@ -5507,22 +5507,22 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>2415.676</t>
+          <t>2311.856</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>-99.638</t>
+          <t>-104.762</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB48" t="inlineStr"/>
@@ -5531,7 +5531,7 @@
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG48" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr">
@@ -5612,22 +5612,22 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>2415.871</t>
+          <t>2329.593</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>-101.154</t>
+          <t>-105.781</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG49" t="inlineStr">
@@ -5646,12 +5646,12 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
@@ -5717,22 +5717,22 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>2416.271</t>
+          <t>2363.657</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>-102.025</t>
+          <t>-104.694</t>
         </is>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB50" t="inlineStr"/>
@@ -5741,7 +5741,7 @@
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG50" t="inlineStr">
@@ -5751,12 +5751,12 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -5822,22 +5822,22 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>2416.672</t>
+          <t>2412.217</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>-101.233</t>
+          <t>-105.838</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>7.112</t>
+          <t>8.936</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>0.411</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr"/>
@@ -5846,7 +5846,7 @@
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr">
         <is>
-          <t>7.524</t>
+          <t>9.348</t>
         </is>
       </c>
       <c r="AG51" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>4.953</t>
+          <t>4.213</t>
         </is>
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>0.367</t>
+          <t>0.369</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr">
@@ -5932,17 +5932,17 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>-80.571</t>
+          <t>-80.594</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB52" t="inlineStr"/>
@@ -5951,7 +5951,7 @@
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG52" t="inlineStr">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -6032,22 +6032,22 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>1493.449</t>
+          <t>1940.001</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>-104.348</t>
+          <t>-56.270</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr"/>
@@ -6056,7 +6056,7 @@
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG53" t="inlineStr">
@@ -6066,12 +6066,12 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -6137,22 +6137,22 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>1939.867</t>
+          <t>2407.069</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>-103.192</t>
+          <t>-100.282</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB54" t="inlineStr"/>
@@ -6161,7 +6161,7 @@
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG54" t="inlineStr">
@@ -6171,12 +6171,12 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ54" t="inlineStr">
@@ -6242,22 +6242,22 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>1940.001</t>
+          <t>2407.532</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>-56.301</t>
+          <t>-100.182</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr"/>
@@ -6266,7 +6266,7 @@
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG55" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ55" t="inlineStr">
@@ -6347,22 +6347,22 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>1940.123</t>
+          <t>2407.873</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>-103.830</t>
+          <t>-99.441</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB56" t="inlineStr"/>
@@ -6371,7 +6371,7 @@
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG56" t="inlineStr">
@@ -6381,12 +6381,12 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ56" t="inlineStr">
@@ -6452,22 +6452,22 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>1988.663</t>
+          <t>2408.019</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>-103.694</t>
+          <t>-99.110</t>
         </is>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr"/>
@@ -6476,7 +6476,7 @@
       <c r="AE57" t="inlineStr"/>
       <c r="AF57" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG57" t="inlineStr">
@@ -6486,12 +6486,12 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr">
@@ -6557,22 +6557,22 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>1989.480</t>
+          <t>2408.068</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>-103.960</t>
+          <t>-99.749</t>
         </is>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB58" t="inlineStr"/>
@@ -6581,7 +6581,7 @@
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG58" t="inlineStr">
@@ -6591,12 +6591,12 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr">
@@ -6662,22 +6662,22 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>2408.239</t>
+          <t>2408.422</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>-101.686</t>
+          <t>-98.388</t>
         </is>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB59" t="inlineStr"/>
@@ -6686,7 +6686,7 @@
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG59" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ59" t="inlineStr">
@@ -6767,22 +6767,22 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>2408.629</t>
+          <t>2408.531</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>-104.273</t>
+          <t>-98.924</t>
         </is>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB60" t="inlineStr"/>
@@ -6791,7 +6791,7 @@
       <c r="AE60" t="inlineStr"/>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ60" t="inlineStr">
@@ -6872,22 +6872,22 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>2408.763</t>
+          <t>2408.824</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>-102.618</t>
+          <t>-100.719</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB61" t="inlineStr"/>
@@ -6896,7 +6896,7 @@
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG61" t="inlineStr">
@@ -6906,12 +6906,12 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ61" t="inlineStr">
@@ -6977,22 +6977,22 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>2408.934</t>
+          <t>2408.873</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>-104.238</t>
+          <t>-98.025</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr"/>
@@ -7001,7 +7001,7 @@
       <c r="AE62" t="inlineStr"/>
       <c r="AF62" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG62" t="inlineStr">
@@ -7011,12 +7011,12 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr">
@@ -7082,22 +7082,22 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>2409.019</t>
+          <t>2409.068</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>-104.481</t>
+          <t>-97.715</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB63" t="inlineStr"/>
@@ -7106,7 +7106,7 @@
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG63" t="inlineStr">
@@ -7116,12 +7116,12 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ63" t="inlineStr">
@@ -7187,22 +7187,22 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>2409.238</t>
+          <t>2409.117</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>-101.340</t>
+          <t>-101.489</t>
         </is>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB64" t="inlineStr"/>
@@ -7211,7 +7211,7 @@
       <c r="AE64" t="inlineStr"/>
       <c r="AF64" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG64" t="inlineStr">
@@ -7221,12 +7221,12 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ64" t="inlineStr">
@@ -7292,22 +7292,22 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>2409.628</t>
+          <t>2409.421</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>-103.182</t>
+          <t>-99.215</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr"/>
@@ -7316,7 +7316,7 @@
       <c r="AE65" t="inlineStr"/>
       <c r="AF65" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG65" t="inlineStr">
@@ -7326,12 +7326,12 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ65" t="inlineStr">
@@ -7397,22 +7397,22 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>2409.763</t>
+          <t>2409.531</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>-101.167</t>
+          <t>-98.970</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr"/>
@@ -7421,7 +7421,7 @@
       <c r="AE66" t="inlineStr"/>
       <c r="AF66" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG66" t="inlineStr">
@@ -7431,12 +7431,12 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ66" t="inlineStr">
@@ -7502,22 +7502,22 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>2410.019</t>
+          <t>2409.872</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>-101.880</t>
+          <t>-98.946</t>
         </is>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB67" t="inlineStr"/>
@@ -7526,7 +7526,7 @@
       <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG67" t="inlineStr">
@@ -7536,12 +7536,12 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr">
@@ -7607,22 +7607,22 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>2410.067</t>
+          <t>2410.019</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>-103.346</t>
+          <t>-99.084</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr"/>
@@ -7631,7 +7631,7 @@
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG68" t="inlineStr">
@@ -7641,12 +7641,12 @@
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr">
@@ -7712,22 +7712,22 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>2410.238</t>
+          <t>2410.067</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>-101.302</t>
+          <t>-98.638</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr"/>
@@ -7736,7 +7736,7 @@
       <c r="AE69" t="inlineStr"/>
       <c r="AF69" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG69" t="inlineStr">
@@ -7746,12 +7746,12 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr">
@@ -7817,22 +7817,22 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>2410.372</t>
+          <t>2410.116</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>-102.286</t>
+          <t>-99.347</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB70" t="inlineStr"/>
@@ -7841,7 +7841,7 @@
       <c r="AE70" t="inlineStr"/>
       <c r="AF70" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG70" t="inlineStr">
@@ -7851,12 +7851,12 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
@@ -7922,22 +7922,22 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>2410.470</t>
+          <t>2410.421</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>-103.414</t>
+          <t>-99.516</t>
         </is>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB71" t="inlineStr"/>
@@ -7946,7 +7946,7 @@
       <c r="AE71" t="inlineStr"/>
       <c r="AF71" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG71" t="inlineStr">
@@ -7956,12 +7956,12 @@
       </c>
       <c r="AH71" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ71" t="inlineStr">
@@ -8027,22 +8027,22 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>2410.628</t>
+          <t>2410.531</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>-102.388</t>
+          <t>-99.376</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       <c r="AE72" t="inlineStr"/>
       <c r="AF72" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG72" t="inlineStr">
@@ -8061,12 +8061,12 @@
       </c>
       <c r="AH72" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr">
@@ -8132,22 +8132,22 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>2410.762</t>
+          <t>2410.872</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>-101.830</t>
+          <t>-98.973</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr"/>
@@ -8156,7 +8156,7 @@
       <c r="AE73" t="inlineStr"/>
       <c r="AF73" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG73" t="inlineStr">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="AH73" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ73" t="inlineStr">
@@ -8237,22 +8237,22 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>2411.006</t>
+          <t>2411.067</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>-102.913</t>
+          <t>-98.153</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB74" t="inlineStr"/>
@@ -8261,7 +8261,7 @@
       <c r="AE74" t="inlineStr"/>
       <c r="AF74" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG74" t="inlineStr">
@@ -8271,12 +8271,12 @@
       </c>
       <c r="AH74" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ74" t="inlineStr">
@@ -8342,22 +8342,22 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>2411.238</t>
+          <t>2411.116</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>-99.852</t>
+          <t>-100.214</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -8366,7 +8366,7 @@
       <c r="AE75" t="inlineStr"/>
       <c r="AF75" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG75" t="inlineStr">
@@ -8376,12 +8376,12 @@
       </c>
       <c r="AH75" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI75" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ75" t="inlineStr">
@@ -8447,22 +8447,22 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>2411.433</t>
+          <t>2411.420</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>-104.020</t>
+          <t>-98.701</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr"/>
@@ -8471,7 +8471,7 @@
       <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG76" t="inlineStr">
@@ -8481,12 +8481,12 @@
       </c>
       <c r="AH76" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ76" t="inlineStr">
@@ -8552,22 +8552,22 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>2411.762</t>
+          <t>2411.530</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>-103.290</t>
+          <t>-99.769</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr"/>
@@ -8576,7 +8576,7 @@
       <c r="AE77" t="inlineStr"/>
       <c r="AF77" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG77" t="inlineStr">
@@ -8586,12 +8586,12 @@
       </c>
       <c r="AH77" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -8657,22 +8657,22 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>2412.237</t>
+          <t>2411.981</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>-103.507</t>
+          <t>-100.920</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr"/>
@@ -8681,7 +8681,7 @@
       <c r="AE78" t="inlineStr"/>
       <c r="AF78" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG78" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="AH78" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ78" t="inlineStr">
@@ -8762,22 +8762,22 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>2412.371</t>
+          <t>2412.420</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>-103.521</t>
+          <t>-99.590</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr"/>
@@ -8786,7 +8786,7 @@
       <c r="AE79" t="inlineStr"/>
       <c r="AF79" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG79" t="inlineStr">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI79" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ79" t="inlineStr">
@@ -8872,17 +8872,17 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>-102.556</t>
+          <t>-99.593</t>
         </is>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB80" t="inlineStr"/>
@@ -8891,7 +8891,7 @@
       <c r="AE80" t="inlineStr"/>
       <c r="AF80" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG80" t="inlineStr">
@@ -8901,12 +8901,12 @@
       </c>
       <c r="AH80" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ80" t="inlineStr">
@@ -8972,22 +8972,22 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>2412.627</t>
+          <t>2412.871</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>-101.803</t>
+          <t>-99.997</t>
         </is>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB81" t="inlineStr"/>
@@ -8996,7 +8996,7 @@
       <c r="AE81" t="inlineStr"/>
       <c r="AF81" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG81" t="inlineStr">
@@ -9006,12 +9006,12 @@
       </c>
       <c r="AH81" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI81" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ81" t="inlineStr">
@@ -9077,22 +9077,22 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>2412.761</t>
+          <t>2413.017</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>-100.851</t>
+          <t>-101.032</t>
         </is>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB82" t="inlineStr"/>
@@ -9101,7 +9101,7 @@
       <c r="AE82" t="inlineStr"/>
       <c r="AF82" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG82" t="inlineStr">
@@ -9111,12 +9111,12 @@
       </c>
       <c r="AH82" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI82" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ82" t="inlineStr">
@@ -9182,22 +9182,22 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>2412.932</t>
+          <t>2413.066</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>-103.140</t>
+          <t>-101.439</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr"/>
@@ -9206,7 +9206,7 @@
       <c r="AE83" t="inlineStr"/>
       <c r="AF83" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG83" t="inlineStr">
@@ -9216,12 +9216,12 @@
       </c>
       <c r="AH83" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI83" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ83" t="inlineStr">
@@ -9287,22 +9287,22 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>2413.017</t>
+          <t>2413.420</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>-100.156</t>
+          <t>-100.524</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr"/>
@@ -9311,7 +9311,7 @@
       <c r="AE84" t="inlineStr"/>
       <c r="AF84" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG84" t="inlineStr">
@@ -9321,12 +9321,12 @@
       </c>
       <c r="AH84" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI84" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ84" t="inlineStr">
@@ -9392,22 +9392,22 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>2413.237</t>
+          <t>2413.529</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>-101.955</t>
+          <t>-100.836</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB85" t="inlineStr"/>
@@ -9416,7 +9416,7 @@
       <c r="AE85" t="inlineStr"/>
       <c r="AF85" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG85" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="AH85" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI85" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ85" t="inlineStr">
@@ -9497,22 +9497,22 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>2413.468</t>
+          <t>2414.017</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>-103.662</t>
+          <t>-100.450</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB86" t="inlineStr"/>
@@ -9521,7 +9521,7 @@
       <c r="AE86" t="inlineStr"/>
       <c r="AF86" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG86" t="inlineStr">
@@ -9531,12 +9531,12 @@
       </c>
       <c r="AH86" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI86" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ86" t="inlineStr">
@@ -9602,22 +9602,22 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>2413.627</t>
+          <t>2414.529</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>-102.813</t>
+          <t>-100.937</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr"/>
@@ -9626,7 +9626,7 @@
       <c r="AE87" t="inlineStr"/>
       <c r="AF87" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG87" t="inlineStr">
@@ -9636,12 +9636,12 @@
       </c>
       <c r="AH87" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI87" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ87" t="inlineStr">
@@ -9707,22 +9707,22 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>2413.761</t>
+          <t>2414.870</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
         <is>
-          <t>-100.802</t>
+          <t>-101.228</t>
         </is>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB88" t="inlineStr"/>
@@ -9731,7 +9731,7 @@
       <c r="AE88" t="inlineStr"/>
       <c r="AF88" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG88" t="inlineStr">
@@ -9741,12 +9741,12 @@
       </c>
       <c r="AH88" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI88" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ88" t="inlineStr">
@@ -9812,22 +9812,22 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>2413.932</t>
+          <t>2415.016</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
         <is>
-          <t>-103.606</t>
+          <t>-101.278</t>
         </is>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB89" t="inlineStr"/>
@@ -9836,7 +9836,7 @@
       <c r="AE89" t="inlineStr"/>
       <c r="AF89" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG89" t="inlineStr">
@@ -9846,12 +9846,12 @@
       </c>
       <c r="AH89" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI89" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ89" t="inlineStr">
@@ -9917,22 +9917,22 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>2414.005</t>
+          <t>2428.498</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>-102.722</t>
+          <t>-96.510</t>
         </is>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB90" t="inlineStr"/>
@@ -9941,7 +9941,7 @@
       <c r="AE90" t="inlineStr"/>
       <c r="AF90" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG90" t="inlineStr">
@@ -9951,12 +9951,12 @@
       </c>
       <c r="AH90" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI90" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ90" t="inlineStr">
@@ -10022,22 +10022,22 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>2414.200</t>
+          <t>2428.559</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>-102.649</t>
+          <t>-97.107</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB91" t="inlineStr"/>
@@ -10046,7 +10046,7 @@
       <c r="AE91" t="inlineStr"/>
       <c r="AF91" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG91" t="inlineStr">
@@ -10056,12 +10056,12 @@
       </c>
       <c r="AH91" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI91" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ91" t="inlineStr">
@@ -10127,22 +10127,22 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>2414.468</t>
+          <t>2428.706</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>-104.294</t>
+          <t>-95.705</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr"/>
@@ -10151,7 +10151,7 @@
       <c r="AE92" t="inlineStr"/>
       <c r="AF92" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG92" t="inlineStr">
@@ -10161,12 +10161,12 @@
       </c>
       <c r="AH92" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -10232,22 +10232,22 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>2414.529</t>
+          <t>2428.828</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>-103.497</t>
+          <t>-92.210</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr"/>
@@ -10256,7 +10256,7 @@
       <c r="AE93" t="inlineStr"/>
       <c r="AF93" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG93" t="inlineStr">
@@ -10266,12 +10266,12 @@
       </c>
       <c r="AH93" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI93" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ93" t="inlineStr">
@@ -10337,22 +10337,22 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>2414.760</t>
+          <t>2428.962</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>-100.985</t>
+          <t>-95.877</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr"/>
@@ -10361,7 +10361,7 @@
       <c r="AE94" t="inlineStr"/>
       <c r="AF94" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG94" t="inlineStr">
@@ -10371,12 +10371,12 @@
       </c>
       <c r="AH94" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI94" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ94" t="inlineStr">
@@ -10442,22 +10442,22 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>2415.016</t>
+          <t>2429.108</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>-102.458</t>
+          <t>-93.525</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr"/>
@@ -10466,7 +10466,7 @@
       <c r="AE95" t="inlineStr"/>
       <c r="AF95" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG95" t="inlineStr">
@@ -10476,12 +10476,12 @@
       </c>
       <c r="AH95" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI95" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ95" t="inlineStr">
@@ -10547,22 +10547,22 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>2415.236</t>
+          <t>2429.193</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>-102.356</t>
+          <t>-94.859</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr"/>
@@ -10571,7 +10571,7 @@
       <c r="AE96" t="inlineStr"/>
       <c r="AF96" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG96" t="inlineStr">
@@ -10581,12 +10581,12 @@
       </c>
       <c r="AH96" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI96" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ96" t="inlineStr">
@@ -10652,22 +10652,22 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>2415.370</t>
+          <t>2429.266</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>-102.573</t>
+          <t>-95.424</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB97" t="inlineStr"/>
@@ -10676,7 +10676,7 @@
       <c r="AE97" t="inlineStr"/>
       <c r="AF97" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG97" t="inlineStr">
@@ -10686,12 +10686,12 @@
       </c>
       <c r="AH97" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ97" t="inlineStr">
@@ -10757,22 +10757,22 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>2415.638</t>
+          <t>2429.340</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
         <is>
-          <t>-102.139</t>
+          <t>-94.974</t>
         </is>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB98" t="inlineStr"/>
@@ -10781,7 +10781,7 @@
       <c r="AE98" t="inlineStr"/>
       <c r="AF98" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG98" t="inlineStr">
@@ -10791,12 +10791,12 @@
       </c>
       <c r="AH98" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI98" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ98" t="inlineStr">
@@ -10862,22 +10862,22 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>2415.760</t>
+          <t>2429.413</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
         <is>
-          <t>-101.139</t>
+          <t>-97.291</t>
         </is>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB99" t="inlineStr"/>
@@ -10886,7 +10886,7 @@
       <c r="AE99" t="inlineStr"/>
       <c r="AF99" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG99" t="inlineStr">
@@ -10896,12 +10896,12 @@
       </c>
       <c r="AH99" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI99" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ99" t="inlineStr">
@@ -10967,22 +10967,22 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>2416.235</t>
+          <t>2429.498</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>-103.784</t>
+          <t>-96.366</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB100" t="inlineStr"/>
@@ -10991,7 +10991,7 @@
       <c r="AE100" t="inlineStr"/>
       <c r="AF100" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG100" t="inlineStr">
@@ -11001,12 +11001,12 @@
       </c>
       <c r="AH100" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI100" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ100" t="inlineStr">
@@ -11072,22 +11072,22 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>2416.430</t>
+          <t>2429.559</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>-104.268</t>
+          <t>-100.292</t>
         </is>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>8.879</t>
+          <t>8.872</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>0.405</t>
+          <t>0.412</t>
         </is>
       </c>
       <c r="AB101" t="inlineStr"/>
@@ -11096,7 +11096,7 @@
       <c r="AE101" t="inlineStr"/>
       <c r="AF101" t="inlineStr">
         <is>
-          <t>9.284</t>
+          <t>9.285</t>
         </is>
       </c>
       <c r="AG101" t="inlineStr">
@@ -11106,12 +11106,12 @@
       </c>
       <c r="AH101" t="inlineStr">
         <is>
-          <t>3.905</t>
+          <t>3.882</t>
         </is>
       </c>
       <c r="AI101" t="inlineStr">
         <is>
-          <t>0.322</t>
+          <t>0.356</t>
         </is>
       </c>
       <c r="AJ101" t="inlineStr">
@@ -11177,22 +11177,22 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>1242.117</t>
+          <t>1256.401</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
         <is>
-          <t>-105.538</t>
+          <t>-105.877</t>
         </is>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB102" t="inlineStr"/>
@@ -11201,7 +11201,7 @@
       <c r="AE102" t="inlineStr"/>
       <c r="AF102" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG102" t="inlineStr">
@@ -11211,12 +11211,12 @@
       </c>
       <c r="AH102" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI102" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ102" t="inlineStr">
@@ -11282,22 +11282,22 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>1298.384</t>
+          <t>1257.099</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
         <is>
-          <t>-105.703</t>
+          <t>-105.729</t>
         </is>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB103" t="inlineStr"/>
@@ -11306,7 +11306,7 @@
       <c r="AE103" t="inlineStr"/>
       <c r="AF103" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG103" t="inlineStr">
@@ -11316,12 +11316,12 @@
       </c>
       <c r="AH103" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI103" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ103" t="inlineStr">
@@ -11387,22 +11387,22 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>1302.534</t>
+          <t>1321.591</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
         <is>
-          <t>-105.815</t>
+          <t>-105.297</t>
         </is>
       </c>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB104" t="inlineStr"/>
@@ -11411,7 +11411,7 @@
       <c r="AE104" t="inlineStr"/>
       <c r="AF104" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG104" t="inlineStr">
@@ -11421,12 +11421,12 @@
       </c>
       <c r="AH104" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI104" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ104" t="inlineStr">
@@ -11492,22 +11492,22 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>1309.914</t>
+          <t>1375.618</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
         <is>
-          <t>-105.254</t>
+          <t>-105.660</t>
         </is>
       </c>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB105" t="inlineStr"/>
@@ -11516,7 +11516,7 @@
       <c r="AE105" t="inlineStr"/>
       <c r="AF105" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG105" t="inlineStr">
@@ -11526,12 +11526,12 @@
       </c>
       <c r="AH105" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI105" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ105" t="inlineStr">
@@ -11597,22 +11597,22 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>1324.945</t>
+          <t>1380.391</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
         <is>
-          <t>-105.948</t>
+          <t>-105.929</t>
         </is>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB106" t="inlineStr"/>
@@ -11621,7 +11621,7 @@
       <c r="AE106" t="inlineStr"/>
       <c r="AF106" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG106" t="inlineStr">
@@ -11631,12 +11631,12 @@
       </c>
       <c r="AH106" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI106" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ106" t="inlineStr">
@@ -11702,22 +11702,22 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>1354.883</t>
+          <t>1395.128</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
         <is>
-          <t>-105.930</t>
+          <t>-105.839</t>
         </is>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB107" t="inlineStr"/>
@@ -11726,7 +11726,7 @@
       <c r="AE107" t="inlineStr"/>
       <c r="AF107" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG107" t="inlineStr">
@@ -11736,12 +11736,12 @@
       </c>
       <c r="AH107" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI107" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ107" t="inlineStr">
@@ -11807,22 +11807,22 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>1373.207</t>
+          <t>1396.034</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
         <is>
-          <t>-105.771</t>
+          <t>-105.805</t>
         </is>
       </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB108" t="inlineStr"/>
@@ -11831,7 +11831,7 @@
       <c r="AE108" t="inlineStr"/>
       <c r="AF108" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG108" t="inlineStr">
@@ -11841,12 +11841,12 @@
       </c>
       <c r="AH108" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -11912,22 +11912,22 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>1374.834</t>
+          <t>1445.911</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
         <is>
-          <t>-105.316</t>
+          <t>-105.508</t>
         </is>
       </c>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB109" t="inlineStr"/>
@@ -11936,7 +11936,7 @@
       <c r="AE109" t="inlineStr"/>
       <c r="AF109" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG109" t="inlineStr">
@@ -11946,12 +11946,12 @@
       </c>
       <c r="AH109" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI109" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ109" t="inlineStr">
@@ -12017,22 +12017,22 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>1383.745</t>
+          <t>1450.000</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
         <is>
-          <t>-105.915</t>
+          <t>-80.643</t>
         </is>
       </c>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB110" t="inlineStr"/>
@@ -12041,7 +12041,7 @@
       <c r="AE110" t="inlineStr"/>
       <c r="AF110" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG110" t="inlineStr">
@@ -12051,12 +12051,12 @@
       </c>
       <c r="AH110" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI110" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ110" t="inlineStr">
@@ -12122,22 +12122,22 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>1383.965</t>
+          <t>1499.326</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
         <is>
-          <t>-105.792</t>
+          <t>-105.688</t>
         </is>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB111" t="inlineStr"/>
@@ -12146,7 +12146,7 @@
       <c r="AE111" t="inlineStr"/>
       <c r="AF111" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG111" t="inlineStr">
@@ -12156,12 +12156,12 @@
       </c>
       <c r="AH111" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI111" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ111" t="inlineStr">
@@ -12227,22 +12227,22 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>1393.586</t>
+          <t>1518.531</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
         <is>
-          <t>-106.078</t>
+          <t>-105.261</t>
         </is>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB112" t="inlineStr"/>
@@ -12251,7 +12251,7 @@
       <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG112" t="inlineStr">
@@ -12261,12 +12261,12 @@
       </c>
       <c r="AH112" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI112" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ112" t="inlineStr">
@@ -12332,22 +12332,22 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>1406.254</t>
+          <t>1621.052</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
         <is>
-          <t>-105.617</t>
+          <t>-105.848</t>
         </is>
       </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA113" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB113" t="inlineStr"/>
@@ -12356,7 +12356,7 @@
       <c r="AE113" t="inlineStr"/>
       <c r="AF113" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG113" t="inlineStr">
@@ -12366,12 +12366,12 @@
       </c>
       <c r="AH113" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI113" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ113" t="inlineStr">
@@ -12437,22 +12437,22 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>1406.744</t>
+          <t>1630.550</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
         <is>
-          <t>-105.965</t>
+          <t>-105.794</t>
         </is>
       </c>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB114" t="inlineStr"/>
@@ -12461,7 +12461,7 @@
       <c r="AE114" t="inlineStr"/>
       <c r="AF114" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG114" t="inlineStr">
@@ -12471,12 +12471,12 @@
       </c>
       <c r="AH114" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ114" t="inlineStr">
@@ -12542,22 +12542,22 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>1407.001</t>
+          <t>1652.153</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
         <is>
-          <t>-105.492</t>
+          <t>-104.984</t>
         </is>
       </c>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB115" t="inlineStr"/>
@@ -12566,7 +12566,7 @@
       <c r="AE115" t="inlineStr"/>
       <c r="AF115" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG115" t="inlineStr">
@@ -12576,12 +12576,12 @@
       </c>
       <c r="AH115" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI115" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ115" t="inlineStr">
@@ -12647,22 +12647,22 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>1409.082</t>
+          <t>1654.552</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
         <is>
-          <t>-105.324</t>
+          <t>-105.576</t>
         </is>
       </c>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB116" t="inlineStr"/>
@@ -12671,7 +12671,7 @@
       <c r="AE116" t="inlineStr"/>
       <c r="AF116" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG116" t="inlineStr">
@@ -12681,12 +12681,12 @@
       </c>
       <c r="AH116" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI116" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ116" t="inlineStr">
@@ -12752,22 +12752,22 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>1438.029</t>
+          <t>1684.503</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
         <is>
-          <t>-105.918</t>
+          <t>-105.662</t>
         </is>
       </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB117" t="inlineStr"/>
@@ -12776,7 +12776,7 @@
       <c r="AE117" t="inlineStr"/>
       <c r="AF117" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG117" t="inlineStr">
@@ -12786,12 +12786,12 @@
       </c>
       <c r="AH117" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
@@ -12857,22 +12857,22 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>1440.967</t>
+          <t>1691.921</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>-105.842</t>
+          <t>-104.543</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB118" t="inlineStr"/>
@@ -12881,7 +12881,7 @@
       <c r="AE118" t="inlineStr"/>
       <c r="AF118" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG118" t="inlineStr">
@@ -12891,12 +12891,12 @@
       </c>
       <c r="AH118" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ118" t="inlineStr">
@@ -12962,22 +12962,22 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>1450.000</t>
+          <t>1694.724</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
         <is>
-          <t>-80.795</t>
+          <t>-105.853</t>
         </is>
       </c>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB119" t="inlineStr"/>
@@ -12986,7 +12986,7 @@
       <c r="AE119" t="inlineStr"/>
       <c r="AF119" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG119" t="inlineStr">
@@ -12996,12 +12996,12 @@
       </c>
       <c r="AH119" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI119" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ119" t="inlineStr">
@@ -13067,22 +13067,22 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>1455.165</t>
+          <t>1752.790</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
         <is>
-          <t>-105.757</t>
+          <t>-105.844</t>
         </is>
       </c>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB120" t="inlineStr"/>
@@ -13091,7 +13091,7 @@
       <c r="AE120" t="inlineStr"/>
       <c r="AF120" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG120" t="inlineStr">
@@ -13101,12 +13101,12 @@
       </c>
       <c r="AH120" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI120" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ120" t="inlineStr">
@@ -13172,22 +13172,22 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>1487.711</t>
+          <t>1797.637</t>
         </is>
       </c>
       <c r="Y121" t="inlineStr">
         <is>
-          <t>-105.965</t>
+          <t>-105.660</t>
         </is>
       </c>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA121" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB121" t="inlineStr"/>
@@ -13196,7 +13196,7 @@
       <c r="AE121" t="inlineStr"/>
       <c r="AF121" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG121" t="inlineStr">
@@ -13206,12 +13206,12 @@
       </c>
       <c r="AH121" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI121" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ121" t="inlineStr">
@@ -13277,22 +13277,22 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>1567.931</t>
+          <t>1853.365</t>
         </is>
       </c>
       <c r="Y122" t="inlineStr">
         <is>
-          <t>-105.404</t>
+          <t>-105.756</t>
         </is>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr"/>
@@ -13301,7 +13301,7 @@
       <c r="AE122" t="inlineStr"/>
       <c r="AF122" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG122" t="inlineStr">
@@ -13311,12 +13311,12 @@
       </c>
       <c r="AH122" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI122" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ122" t="inlineStr">
@@ -13382,22 +13382,22 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>1575.679</t>
+          <t>1905.739</t>
         </is>
       </c>
       <c r="Y123" t="inlineStr">
         <is>
-          <t>-106.112</t>
+          <t>-105.592</t>
         </is>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA123" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB123" t="inlineStr"/>
@@ -13406,7 +13406,7 @@
       <c r="AE123" t="inlineStr"/>
       <c r="AF123" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG123" t="inlineStr">
@@ -13416,12 +13416,12 @@
       </c>
       <c r="AH123" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI123" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ123" t="inlineStr">
@@ -13487,22 +13487,22 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>1578.286</t>
+          <t>1949.876</t>
         </is>
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>-105.965</t>
+          <t>-103.799</t>
         </is>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB124" t="inlineStr"/>
@@ -13511,7 +13511,7 @@
       <c r="AE124" t="inlineStr"/>
       <c r="AF124" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG124" t="inlineStr">
@@ -13521,12 +13521,12 @@
       </c>
       <c r="AH124" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ124" t="inlineStr">
@@ -13592,22 +13592,22 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>1587.637</t>
+          <t>1949.999</t>
         </is>
       </c>
       <c r="Y125" t="inlineStr">
         <is>
-          <t>-105.822</t>
+          <t>-56.190</t>
         </is>
       </c>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB125" t="inlineStr"/>
@@ -13616,7 +13616,7 @@
       <c r="AE125" t="inlineStr"/>
       <c r="AF125" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG125" t="inlineStr">
@@ -13626,12 +13626,12 @@
       </c>
       <c r="AH125" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ125" t="inlineStr">
@@ -13697,22 +13697,22 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>1608.996</t>
+          <t>1950.121</t>
         </is>
       </c>
       <c r="Y126" t="inlineStr">
         <is>
-          <t>-106.099</t>
+          <t>-104.465</t>
         </is>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB126" t="inlineStr"/>
@@ -13721,7 +13721,7 @@
       <c r="AE126" t="inlineStr"/>
       <c r="AF126" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG126" t="inlineStr">
@@ -13731,12 +13731,12 @@
       </c>
       <c r="AH126" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI126" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ126" t="inlineStr">
@@ -13802,22 +13802,22 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>1614.491</t>
+          <t>1989.032</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>-105.615</t>
+          <t>-105.843</t>
         </is>
       </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB127" t="inlineStr"/>
@@ -13826,7 +13826,7 @@
       <c r="AE127" t="inlineStr"/>
       <c r="AF127" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG127" t="inlineStr">
@@ -13836,12 +13836,12 @@
       </c>
       <c r="AH127" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI127" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ127" t="inlineStr">
@@ -13907,22 +13907,22 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>1634.075</t>
+          <t>1994.894</t>
         </is>
       </c>
       <c r="Y128" t="inlineStr">
         <is>
-          <t>-106.047</t>
+          <t>-105.169</t>
         </is>
       </c>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA128" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB128" t="inlineStr"/>
@@ -13931,7 +13931,7 @@
       <c r="AE128" t="inlineStr"/>
       <c r="AF128" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG128" t="inlineStr">
@@ -13941,12 +13941,12 @@
       </c>
       <c r="AH128" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI128" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ128" t="inlineStr">
@@ -14012,22 +14012,22 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>1683.255</t>
+          <t>2016.363</t>
         </is>
       </c>
       <c r="Y129" t="inlineStr">
         <is>
-          <t>-105.978</t>
+          <t>-105.034</t>
         </is>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB129" t="inlineStr"/>
@@ -14036,7 +14036,7 @@
       <c r="AE129" t="inlineStr"/>
       <c r="AF129" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG129" t="inlineStr">
@@ -14046,12 +14046,12 @@
       </c>
       <c r="AH129" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ129" t="inlineStr">
@@ -14117,22 +14117,22 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>1686.853</t>
+          <t>2033.952</t>
         </is>
       </c>
       <c r="Y130" t="inlineStr">
         <is>
-          <t>-106.068</t>
+          <t>-105.814</t>
         </is>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB130" t="inlineStr"/>
@@ -14141,7 +14141,7 @@
       <c r="AE130" t="inlineStr"/>
       <c r="AF130" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG130" t="inlineStr">
@@ -14151,12 +14151,12 @@
       </c>
       <c r="AH130" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ130" t="inlineStr">
@@ -14222,22 +14222,22 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>1785.837</t>
+          <t>2181.638</t>
         </is>
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>-105.863</t>
+          <t>-105.473</t>
         </is>
       </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB131" t="inlineStr"/>
@@ -14246,7 +14246,7 @@
       <c r="AE131" t="inlineStr"/>
       <c r="AF131" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG131" t="inlineStr">
@@ -14256,12 +14256,12 @@
       </c>
       <c r="AH131" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI131" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ131" t="inlineStr">
@@ -14327,22 +14327,22 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>1786.437</t>
+          <t>2188.713</t>
         </is>
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>-105.914</t>
+          <t>-105.880</t>
         </is>
       </c>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB132" t="inlineStr"/>
@@ -14351,7 +14351,7 @@
       <c r="AE132" t="inlineStr"/>
       <c r="AF132" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG132" t="inlineStr">
@@ -14361,12 +14361,12 @@
       </c>
       <c r="AH132" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI132" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ132" t="inlineStr">
@@ -14432,22 +14432,22 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>1803.181</t>
+          <t>2229.765</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>-105.714</t>
+          <t>-104.567</t>
         </is>
       </c>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB133" t="inlineStr"/>
@@ -14456,7 +14456,7 @@
       <c r="AE133" t="inlineStr"/>
       <c r="AF133" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG133" t="inlineStr">
@@ -14466,12 +14466,12 @@
       </c>
       <c r="AH133" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI133" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ133" t="inlineStr">
@@ -14537,22 +14537,22 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>1852.288</t>
+          <t>2256.179</t>
         </is>
       </c>
       <c r="Y134" t="inlineStr">
         <is>
-          <t>-105.816</t>
+          <t>-105.894</t>
         </is>
       </c>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB134" t="inlineStr"/>
@@ -14561,7 +14561,7 @@
       <c r="AE134" t="inlineStr"/>
       <c r="AF134" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG134" t="inlineStr">
@@ -14571,12 +14571,12 @@
       </c>
       <c r="AH134" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI134" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ134" t="inlineStr">
@@ -14642,22 +14642,22 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>1949.999</t>
+          <t>2260.745</t>
         </is>
       </c>
       <c r="Y135" t="inlineStr">
         <is>
-          <t>-56.216</t>
+          <t>-105.495</t>
         </is>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB135" t="inlineStr"/>
@@ -14666,7 +14666,7 @@
       <c r="AE135" t="inlineStr"/>
       <c r="AF135" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG135" t="inlineStr">
@@ -14676,12 +14676,12 @@
       </c>
       <c r="AH135" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI135" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ135" t="inlineStr">
@@ -14747,22 +14747,22 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>1950.133</t>
+          <t>2367.342</t>
         </is>
       </c>
       <c r="Y136" t="inlineStr">
         <is>
-          <t>-104.450</t>
+          <t>-105.905</t>
         </is>
       </c>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB136" t="inlineStr"/>
@@ -14771,7 +14771,7 @@
       <c r="AE136" t="inlineStr"/>
       <c r="AF136" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG136" t="inlineStr">
@@ -14781,12 +14781,12 @@
       </c>
       <c r="AH136" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI136" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ136" t="inlineStr">
@@ -14852,22 +14852,22 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>1963.928</t>
+          <t>2393.511</t>
         </is>
       </c>
       <c r="Y137" t="inlineStr">
         <is>
-          <t>-105.247</t>
+          <t>-105.784</t>
         </is>
       </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB137" t="inlineStr"/>
@@ -14876,7 +14876,7 @@
       <c r="AE137" t="inlineStr"/>
       <c r="AF137" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG137" t="inlineStr">
@@ -14886,12 +14886,12 @@
       </c>
       <c r="AH137" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ137" t="inlineStr">
@@ -14957,22 +14957,22 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>1985.360</t>
+          <t>2399.998</t>
         </is>
       </c>
       <c r="Y138" t="inlineStr">
         <is>
-          <t>-105.407</t>
+          <t>-105.563</t>
         </is>
       </c>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB138" t="inlineStr"/>
@@ -14981,7 +14981,7 @@
       <c r="AE138" t="inlineStr"/>
       <c r="AF138" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG138" t="inlineStr">
@@ -14991,12 +14991,12 @@
       </c>
       <c r="AH138" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI138" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ138" t="inlineStr">
@@ -15062,22 +15062,22 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>2040.916</t>
+          <t>2400.867</t>
         </is>
       </c>
       <c r="Y139" t="inlineStr">
         <is>
-          <t>-105.863</t>
+          <t>-105.392</t>
         </is>
       </c>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB139" t="inlineStr"/>
@@ -15086,7 +15086,7 @@
       <c r="AE139" t="inlineStr"/>
       <c r="AF139" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG139" t="inlineStr">
@@ -15096,12 +15096,12 @@
       </c>
       <c r="AH139" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI139" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ139" t="inlineStr">
@@ -15167,22 +15167,22 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>2059.215</t>
+          <t>2411.442</t>
         </is>
       </c>
       <c r="Y140" t="inlineStr">
         <is>
-          <t>-105.748</t>
+          <t>-103.174</t>
         </is>
       </c>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA140" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB140" t="inlineStr"/>
@@ -15191,7 +15191,7 @@
       <c r="AE140" t="inlineStr"/>
       <c r="AF140" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG140" t="inlineStr">
@@ -15201,12 +15201,12 @@
       </c>
       <c r="AH140" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI140" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ140" t="inlineStr">
@@ -15272,22 +15272,22 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>2070.182</t>
+          <t>2411.503</t>
         </is>
       </c>
       <c r="Y141" t="inlineStr">
         <is>
-          <t>-106.014</t>
+          <t>-98.400</t>
         </is>
       </c>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB141" t="inlineStr"/>
@@ -15296,7 +15296,7 @@
       <c r="AE141" t="inlineStr"/>
       <c r="AF141" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG141" t="inlineStr">
@@ -15306,12 +15306,12 @@
       </c>
       <c r="AH141" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI141" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ141" t="inlineStr">
@@ -15377,22 +15377,22 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>2190.010</t>
+          <t>2411.650</t>
         </is>
       </c>
       <c r="Y142" t="inlineStr">
         <is>
-          <t>-106.098</t>
+          <t>-99.009</t>
         </is>
       </c>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB142" t="inlineStr"/>
@@ -15401,7 +15401,7 @@
       <c r="AE142" t="inlineStr"/>
       <c r="AF142" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG142" t="inlineStr">
@@ -15411,12 +15411,12 @@
       </c>
       <c r="AH142" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI142" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ142" t="inlineStr">
@@ -15482,22 +15482,22 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>2193.511</t>
+          <t>2411.748</t>
         </is>
       </c>
       <c r="Y143" t="inlineStr">
         <is>
-          <t>-104.671</t>
+          <t>-96.138</t>
         </is>
       </c>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr"/>
@@ -15506,7 +15506,7 @@
       <c r="AE143" t="inlineStr"/>
       <c r="AF143" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG143" t="inlineStr">
@@ -15516,12 +15516,12 @@
       </c>
       <c r="AH143" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI143" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ143" t="inlineStr">
@@ -15587,22 +15587,22 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>2266.448</t>
+          <t>2411.834</t>
         </is>
       </c>
       <c r="Y144" t="inlineStr">
         <is>
-          <t>-105.576</t>
+          <t>-93.647</t>
         </is>
       </c>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA144" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB144" t="inlineStr"/>
@@ -15611,7 +15611,7 @@
       <c r="AE144" t="inlineStr"/>
       <c r="AF144" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG144" t="inlineStr">
@@ -15621,12 +15621,12 @@
       </c>
       <c r="AH144" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI144" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ144" t="inlineStr">
@@ -15692,22 +15692,22 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>2306.815</t>
+          <t>2412.066</t>
         </is>
       </c>
       <c r="Y145" t="inlineStr">
         <is>
-          <t>-105.273</t>
+          <t>-96.433</t>
         </is>
       </c>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB145" t="inlineStr"/>
@@ -15716,7 +15716,7 @@
       <c r="AE145" t="inlineStr"/>
       <c r="AF145" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG145" t="inlineStr">
@@ -15726,12 +15726,12 @@
       </c>
       <c r="AH145" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ145" t="inlineStr">
@@ -15797,22 +15797,22 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>2320.879</t>
+          <t>2412.176</t>
         </is>
       </c>
       <c r="Y146" t="inlineStr">
         <is>
-          <t>-105.731</t>
+          <t>-95.287</t>
         </is>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB146" t="inlineStr"/>
@@ -15821,7 +15821,7 @@
       <c r="AE146" t="inlineStr"/>
       <c r="AF146" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG146" t="inlineStr">
@@ -15831,12 +15831,12 @@
       </c>
       <c r="AH146" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ146" t="inlineStr">
@@ -15902,22 +15902,22 @@
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>2376.509</t>
+          <t>2412.225</t>
         </is>
       </c>
       <c r="Y147" t="inlineStr">
         <is>
-          <t>-106.090</t>
+          <t>-96.117</t>
         </is>
       </c>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB147" t="inlineStr"/>
@@ -15926,7 +15926,7 @@
       <c r="AE147" t="inlineStr"/>
       <c r="AF147" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG147" t="inlineStr">
@@ -15936,12 +15936,12 @@
       </c>
       <c r="AH147" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -16007,22 +16007,22 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>2379.630</t>
+          <t>2412.360</t>
         </is>
       </c>
       <c r="Y148" t="inlineStr">
         <is>
-          <t>-106.066</t>
+          <t>-97.224</t>
         </is>
       </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA148" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB148" t="inlineStr"/>
@@ -16031,7 +16031,7 @@
       <c r="AE148" t="inlineStr"/>
       <c r="AF148" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG148" t="inlineStr">
@@ -16041,12 +16041,12 @@
       </c>
       <c r="AH148" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ148" t="inlineStr">
@@ -16112,22 +16112,22 @@
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>2379.704</t>
+          <t>2412.446</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>-106.092</t>
+          <t>-100.670</t>
         </is>
       </c>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB149" t="inlineStr"/>
@@ -16136,7 +16136,7 @@
       <c r="AE149" t="inlineStr"/>
       <c r="AF149" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG149" t="inlineStr">
@@ -16146,12 +16146,12 @@
       </c>
       <c r="AH149" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI149" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ149" t="inlineStr">
@@ -16217,22 +16217,22 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>2380.671</t>
+          <t>2412.507</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>-106.032</t>
+          <t>-99.646</t>
         </is>
       </c>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB150" t="inlineStr"/>
@@ -16241,7 +16241,7 @@
       <c r="AE150" t="inlineStr"/>
       <c r="AF150" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG150" t="inlineStr">
@@ -16251,12 +16251,12 @@
       </c>
       <c r="AH150" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ150" t="inlineStr">
@@ -16322,22 +16322,22 @@
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>2397.097</t>
+          <t>2436.987</t>
         </is>
       </c>
       <c r="Y151" t="inlineStr">
         <is>
-          <t>-105.814</t>
+          <t>-103.869</t>
         </is>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.860</t>
         </is>
       </c>
       <c r="AA151" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.414</t>
         </is>
       </c>
       <c r="AB151" t="inlineStr"/>
@@ -16346,7 +16346,7 @@
       <c r="AE151" t="inlineStr"/>
       <c r="AF151" t="inlineStr">
         <is>
-          <t>9.270</t>
+          <t>9.274</t>
         </is>
       </c>
       <c r="AG151" t="inlineStr">
@@ -16356,12 +16356,12 @@
       </c>
       <c r="AH151" t="inlineStr">
         <is>
-          <t>3.906</t>
+          <t>3.893</t>
         </is>
       </c>
       <c r="AI151" t="inlineStr">
         <is>
-          <t>0.358</t>
+          <t>0.359</t>
         </is>
       </c>
       <c r="AJ151" t="inlineStr">
@@ -16458,7 +16458,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13.811</t>
+          <t>13.073</t>
         </is>
       </c>
     </row>
@@ -16470,7 +16470,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4.604</t>
+          <t>4.358</t>
         </is>
       </c>
     </row>
@@ -16482,7 +16482,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4.264</t>
+          <t>4.252</t>
         </is>
       </c>
     </row>
@@ -16602,7 +16602,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>24.855</t>
+          <t>26.668</t>
         </is>
       </c>
     </row>
@@ -16614,7 +16614,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.285</t>
+          <t>8.889</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8.863</t>
+          <t>8.872</t>
         </is>
       </c>
     </row>
@@ -16638,7 +16638,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.223</t>
+          <t>1.238</t>
         </is>
       </c>
     </row>
@@ -16650,7 +16650,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.408</t>
+          <t>0.413</t>
         </is>
       </c>
     </row>
@@ -16662,7 +16662,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.407</t>
+          <t>0.412</t>
         </is>
       </c>
     </row>
